--- a/Get_CV_From_LinkedIn/Data/Config.xlsx
+++ b/Get_CV_From_LinkedIn/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabac\Documents\UiPath\Get_CV_From_LinkedIn\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabac\Desktop\github_Bac\RPA\Get_CV_From_LinkedIn\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>Data\Temp</t>
-  </si>
-  <si>
-    <t>Data_Search</t>
-  </si>
-  <si>
-    <t>python</t>
   </si>
 </sst>
 </file>
@@ -510,7 +504,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -586,14 +580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
